--- a/PES/Bonus - 25.xlsx
+++ b/PES/Bonus - 25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EC912C-B917-4F5A-B55F-DAA0BAF8249A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E3052A-0D6B-4137-9510-977C252830EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="93">
   <si>
     <t>Rehan Aslam</t>
   </si>
@@ -593,7 +593,167 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="150">
+  <dxfs count="166">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -2311,9 +2471,9 @@
   <dimension ref="A1:H834"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="120" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J576" sqref="J576"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3047,7 +3207,9 @@
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="F38" s="31"/>
+      <c r="F38" s="36" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
@@ -3066,7 +3228,9 @@
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="F39" s="31"/>
+      <c r="F39" s="36" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
@@ -3254,7 +3418,9 @@
         <f t="shared" si="2"/>
         <v>17500</v>
       </c>
-      <c r="F48" s="31"/>
+      <c r="F48" s="36" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
@@ -3301,7 +3467,9 @@
       <c r="E51" s="34">
         <v>20000</v>
       </c>
-      <c r="F51" s="31"/>
+      <c r="F51" s="36" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
@@ -3319,7 +3487,9 @@
       <c r="E52" s="34">
         <v>20000</v>
       </c>
-      <c r="F52" s="31"/>
+      <c r="F52" s="36" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
@@ -3337,7 +3507,9 @@
       <c r="E53" s="34">
         <v>15000</v>
       </c>
-      <c r="F53" s="31"/>
+      <c r="F53" s="36" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
@@ -3729,7 +3901,13 @@
       <c r="E73" s="34">
         <v>5000</v>
       </c>
-      <c r="F73" s="31"/>
+      <c r="F73" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G73" s="40">
+        <f>E73+E65+E64++E55+E53+E51+E48</f>
+        <v>82500</v>
+      </c>
       <c r="H73" s="40"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3774,7 +3952,7 @@
       </c>
       <c r="E77" s="37">
         <f>SUMIF(F1:F74,"Paid",E1:E74)</f>
-        <v>808500</v>
+        <v>931000</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3784,7 +3962,7 @@
       <c r="D78" s="10"/>
       <c r="E78" s="39">
         <f>E74-E76-E77</f>
-        <v>147500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8325,751 +8503,831 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F6">
-    <cfRule type="cellIs" dxfId="149" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="166" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F6">
-    <cfRule type="cellIs" dxfId="148" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="165" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F6">
-    <cfRule type="cellIs" dxfId="147" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="164" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F6">
-    <cfRule type="cellIs" dxfId="146" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="163" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F16">
-    <cfRule type="cellIs" dxfId="145" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="162" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F16">
-    <cfRule type="cellIs" dxfId="144" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="161" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F16">
-    <cfRule type="cellIs" dxfId="143" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="160" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F16">
-    <cfRule type="cellIs" dxfId="142" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="159" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="141" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="131" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="140" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="85" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="155" priority="158" operator="equal">
+      <formula>"Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="154" priority="157" operator="equal">
+      <formula>"Not Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="153" priority="156" operator="equal">
+      <formula>"Online"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="152" priority="155" operator="equal">
+      <formula>"Online"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="151" priority="154" operator="equal">
+      <formula>"Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="150" priority="153" operator="equal">
+      <formula>"Not Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="149" priority="152" operator="equal">
+      <formula>"Online"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="148" priority="151" operator="equal">
+      <formula>"Online"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="147" priority="150" operator="equal">
+      <formula>"Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="146" priority="149" operator="equal">
+      <formula>"Not Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="145" priority="148" operator="equal">
+      <formula>"Online"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="144" priority="147" operator="equal">
+      <formula>"Online"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="143" priority="146" operator="equal">
+      <formula>"Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="142" priority="145" operator="equal">
+      <formula>"Not Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="141" priority="144" operator="equal">
+      <formula>"Online"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="140" priority="143" operator="equal">
+      <formula>"Online"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
     <cfRule type="cellIs" dxfId="139" priority="142" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="F37">
     <cfRule type="cellIs" dxfId="138" priority="141" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="F37">
     <cfRule type="cellIs" dxfId="137" priority="140" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="F37">
     <cfRule type="cellIs" dxfId="136" priority="139" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="F57">
     <cfRule type="cellIs" dxfId="135" priority="138" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="F57">
     <cfRule type="cellIs" dxfId="134" priority="137" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="F57">
     <cfRule type="cellIs" dxfId="133" priority="136" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="F57">
     <cfRule type="cellIs" dxfId="132" priority="135" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F58">
     <cfRule type="cellIs" dxfId="131" priority="134" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F58">
     <cfRule type="cellIs" dxfId="130" priority="133" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F58">
     <cfRule type="cellIs" dxfId="129" priority="132" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="128" priority="131" operator="equal">
+  <conditionalFormatting sqref="F59">
+    <cfRule type="cellIs" dxfId="128" priority="127" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+  <conditionalFormatting sqref="F59">
     <cfRule type="cellIs" dxfId="127" priority="130" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+  <conditionalFormatting sqref="F59">
     <cfRule type="cellIs" dxfId="126" priority="129" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+  <conditionalFormatting sqref="F59">
     <cfRule type="cellIs" dxfId="125" priority="128" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="124" priority="127" operator="equal">
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="124" priority="123" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+  <conditionalFormatting sqref="F60">
     <cfRule type="cellIs" dxfId="123" priority="126" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+  <conditionalFormatting sqref="F60">
     <cfRule type="cellIs" dxfId="122" priority="125" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+  <conditionalFormatting sqref="F60">
     <cfRule type="cellIs" dxfId="121" priority="124" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="120" priority="123" operator="equal">
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="120" priority="119" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
+  <conditionalFormatting sqref="F61">
     <cfRule type="cellIs" dxfId="119" priority="122" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
+  <conditionalFormatting sqref="F61">
     <cfRule type="cellIs" dxfId="118" priority="121" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
+  <conditionalFormatting sqref="F61">
     <cfRule type="cellIs" dxfId="117" priority="120" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="116" priority="119" operator="equal">
+  <conditionalFormatting sqref="F68">
+    <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
+  <conditionalFormatting sqref="F68">
     <cfRule type="cellIs" dxfId="115" priority="118" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
+  <conditionalFormatting sqref="F68">
     <cfRule type="cellIs" dxfId="114" priority="117" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
+  <conditionalFormatting sqref="F68">
     <cfRule type="cellIs" dxfId="113" priority="116" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
+  <conditionalFormatting sqref="F69">
     <cfRule type="cellIs" dxfId="112" priority="111" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
+  <conditionalFormatting sqref="F69">
     <cfRule type="cellIs" dxfId="111" priority="114" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
+  <conditionalFormatting sqref="F69">
     <cfRule type="cellIs" dxfId="110" priority="113" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
+  <conditionalFormatting sqref="F69">
     <cfRule type="cellIs" dxfId="109" priority="112" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
+  <conditionalFormatting sqref="F70">
     <cfRule type="cellIs" dxfId="108" priority="107" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
+  <conditionalFormatting sqref="F70">
     <cfRule type="cellIs" dxfId="107" priority="110" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
+  <conditionalFormatting sqref="F70">
     <cfRule type="cellIs" dxfId="106" priority="109" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
+  <conditionalFormatting sqref="F70">
     <cfRule type="cellIs" dxfId="105" priority="108" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="104" priority="106" operator="equal">
+      <formula>"Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="103" priority="105" operator="equal">
+      <formula>"Not Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="102" priority="104" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="103" priority="106" operator="equal">
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
+      <formula>"Online"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76">
+    <cfRule type="cellIs" dxfId="100" priority="102" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="102" priority="105" operator="equal">
+  <conditionalFormatting sqref="F76">
+    <cfRule type="cellIs" dxfId="99" priority="101" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="101" priority="104" operator="equal">
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="98" priority="100" operator="equal">
+      <formula>"Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
+      <formula>"Not Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="96" priority="98" operator="equal">
+      <formula>"Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="95" priority="97" operator="equal">
+      <formula>"Not Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:F73">
+    <cfRule type="cellIs" dxfId="94" priority="96" operator="equal">
+      <formula>"Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:F73">
+    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
+      <formula>"Not Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:F73">
+    <cfRule type="cellIs" dxfId="92" priority="94" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" dxfId="100" priority="99" operator="equal">
+  <conditionalFormatting sqref="F72:F73">
+    <cfRule type="cellIs" dxfId="91" priority="93" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" dxfId="99" priority="102" operator="equal">
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="90" priority="92" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" dxfId="98" priority="101" operator="equal">
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" dxfId="97" priority="100" operator="equal">
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="88" priority="90" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="96" priority="95" operator="equal">
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="87" priority="89" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="95" priority="98" operator="equal">
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="86" priority="88" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="94" priority="97" operator="equal">
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="93" priority="96" operator="equal">
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="84" priority="86" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
+  <conditionalFormatting sqref="F7:F10">
+    <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
+      <formula>"Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F10">
+    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
+      <formula>"Not Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F10">
+    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="91" priority="94" operator="equal">
+  <conditionalFormatting sqref="F7:F10">
+    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
+      <formula>"Online"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="90" priority="93" operator="equal">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="89" priority="92" operator="equal">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="88" priority="90" operator="equal">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
+      <formula>"Online"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="87" priority="89" operator="equal">
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="86" priority="88" operator="equal">
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
-    <cfRule type="cellIs" dxfId="84" priority="86" operator="equal">
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
-    <cfRule type="cellIs" dxfId="83" priority="85" operator="equal">
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="82" priority="84" operator="equal">
-      <formula>"Paid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
-      <formula>"Not Paid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
-      <formula>"Paid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="79" priority="81" operator="equal">
-      <formula>"Not Paid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F72">
-    <cfRule type="cellIs" dxfId="78" priority="80" operator="equal">
-      <formula>"Paid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F72">
-    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
-      <formula>"Not Paid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F72">
-    <cfRule type="cellIs" dxfId="76" priority="78" operator="equal">
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72">
-    <cfRule type="cellIs" dxfId="75" priority="77" operator="equal">
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
-      <formula>"Paid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
-      <formula>"Not Paid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
-      <formula>"Online"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
-      <formula>"Online"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
-      <formula>"Paid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
-      <formula>"Not Paid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
-      <formula>"Online"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F10">
+  <conditionalFormatting sqref="F42:F43">
     <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F10">
+  <conditionalFormatting sqref="F42:F43">
     <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F10">
+  <conditionalFormatting sqref="F42:F43">
     <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F10">
+  <conditionalFormatting sqref="F42:F43">
     <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="F44:F48">
     <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="F44:F48">
     <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="F44:F48">
     <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="F44:F48">
     <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="F66">
     <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="F66">
     <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="F66">
     <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="F66">
     <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F67">
     <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F67">
     <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F67">
     <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F67">
     <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F43">
+  <conditionalFormatting sqref="F71">
     <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F43">
+  <conditionalFormatting sqref="F71">
     <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F43">
+  <conditionalFormatting sqref="F71">
     <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F43">
+  <conditionalFormatting sqref="F71">
     <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F48">
+  <conditionalFormatting sqref="F62">
     <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F48">
+  <conditionalFormatting sqref="F62">
     <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F48">
+  <conditionalFormatting sqref="F62">
     <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F48">
+  <conditionalFormatting sqref="F62">
     <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
+  <conditionalFormatting sqref="F24">
     <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
+  <conditionalFormatting sqref="F24">
     <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
+  <conditionalFormatting sqref="F24">
     <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
+  <conditionalFormatting sqref="F24">
     <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
+  <conditionalFormatting sqref="F56">
     <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
+  <conditionalFormatting sqref="F56">
     <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
+  <conditionalFormatting sqref="F56">
     <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
+  <conditionalFormatting sqref="F56">
     <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
+  <conditionalFormatting sqref="F41">
     <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
+  <conditionalFormatting sqref="F41">
     <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
+  <conditionalFormatting sqref="F41">
     <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
+  <conditionalFormatting sqref="F41">
     <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
+  <conditionalFormatting sqref="F49">
     <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
+  <conditionalFormatting sqref="F49">
     <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
+  <conditionalFormatting sqref="F49">
     <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
+  <conditionalFormatting sqref="F49">
     <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="F63">
     <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="F63">
     <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="F63">
     <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="F63">
     <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
+  <conditionalFormatting sqref="F40">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
+  <conditionalFormatting sqref="F40">
     <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
+  <conditionalFormatting sqref="F40">
     <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
+  <conditionalFormatting sqref="F40">
     <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+  <conditionalFormatting sqref="F27:F32">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+  <conditionalFormatting sqref="F27:F32">
     <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+  <conditionalFormatting sqref="F27:F32">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+  <conditionalFormatting sqref="F27:F32">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="F52:F53">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="F52:F53">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="F52:F53">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="F52:F53">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
+  <conditionalFormatting sqref="F39">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
+  <conditionalFormatting sqref="F39">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
+  <conditionalFormatting sqref="F39">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
+  <conditionalFormatting sqref="F39">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
+  <conditionalFormatting sqref="F38">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
+  <conditionalFormatting sqref="F38">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
+  <conditionalFormatting sqref="F38">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
+  <conditionalFormatting sqref="F38">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F32">
+  <conditionalFormatting sqref="F51">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F32">
+  <conditionalFormatting sqref="F51">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F32">
+  <conditionalFormatting sqref="F51">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F32">
+  <conditionalFormatting sqref="F51">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Online"</formula>
     </cfRule>

--- a/PES/Bonus - 25.xlsx
+++ b/PES/Bonus - 25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E3052A-0D6B-4137-9510-977C252830EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A440BAC-B9E1-426C-B03F-D81C20D19065}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Salary Sheets'!$A$1:$F$74</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="du1CJkfQSf7WgjIw8u8WMdJ5ZZLFxjX0JgPF1VtAdIA="/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="93">
   <si>
     <t>Rehan Aslam</t>
   </si>
@@ -2471,9 +2471,9 @@
   <dimension ref="A1:H834"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="120" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J576" sqref="J576"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3547,7 +3547,9 @@
       <c r="E55" s="34">
         <v>15000</v>
       </c>
-      <c r="F55" s="31"/>
+      <c r="F55" s="36" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
@@ -3952,7 +3954,7 @@
       </c>
       <c r="E77" s="37">
         <f>SUMIF(F1:F74,"Paid",E1:E74)</f>
-        <v>931000</v>
+        <v>946000</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3962,7 +3964,7 @@
       <c r="D78" s="10"/>
       <c r="E78" s="39">
         <f>E74-E76-E77</f>
-        <v>25000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8877,22 +8879,22 @@
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
+  <conditionalFormatting sqref="F54:F55">
     <cfRule type="cellIs" dxfId="90" priority="92" operator="equal">
       <formula>"Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
+  <conditionalFormatting sqref="F54:F55">
     <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
       <formula>"Not Paid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
+  <conditionalFormatting sqref="F54:F55">
     <cfRule type="cellIs" dxfId="88" priority="90" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
+  <conditionalFormatting sqref="F54:F55">
     <cfRule type="cellIs" dxfId="87" priority="89" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
